--- a/Thesis_draft_dates.xlsx
+++ b/Thesis_draft_dates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="22980" windowHeight="10848"/>
+    <workbookView xWindow="0" yWindow="132" windowWidth="17724" windowHeight="6300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>Section</t>
   </si>
@@ -147,31 +147,25 @@
     <t>Add more</t>
   </si>
   <si>
-    <t>19th September</t>
-  </si>
-  <si>
-    <t>24th October</t>
-  </si>
-  <si>
     <t>12th December</t>
   </si>
   <si>
-    <t>14th November</t>
-  </si>
-  <si>
     <t>(4 weeks)</t>
   </si>
   <si>
-    <t>(5 weeks)</t>
-  </si>
-  <si>
     <t>(3 weeks)</t>
   </si>
   <si>
-    <t>28th November</t>
-  </si>
-  <si>
-    <t>(2 weeks)</t>
+    <t>12th September</t>
+  </si>
+  <si>
+    <t>31st October</t>
+  </si>
+  <si>
+    <t>3rd October</t>
+  </si>
+  <si>
+    <t>21st November</t>
   </si>
 </sst>
 </file>
@@ -528,11 +522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,9 +535,10 @@
     <col min="2" max="2" width="28.44140625" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
     <col min="6" max="6" width="22.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -566,7 +561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -583,7 +578,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -600,7 +595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -614,7 +609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -631,7 +626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -648,7 +643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -656,13 +651,13 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
       <c r="G7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -682,7 +677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -699,7 +694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -716,7 +711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -733,21 +728,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="6" t="s">
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
         <v>45</v>
       </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -767,7 +762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -784,7 +779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -801,7 +796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -818,7 +813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -828,11 +823,11 @@
       <c r="G17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -850,7 +845,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -865,13 +860,13 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -885,7 +880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -893,13 +888,13 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s">
         <v>44</v>
       </c>
-      <c r="I22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -916,7 +911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -930,7 +925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>37</v>
       </c>
@@ -944,7 +939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -958,7 +953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>39</v>
       </c>
@@ -972,7 +967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>40</v>
       </c>
@@ -989,7 +984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>41</v>
       </c>
@@ -1003,12 +998,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
